--- a/biology/Histoire de la zoologie et de la botanique/James_Cunningham_(botaniste)/James_Cunningham_(botaniste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_Cunningham_(botaniste)/James_Cunningham_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Cunningham, né au XVIIe siècle et mort vers 1709, est un botaniste britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au service de la Compagnie britannique des Indes orientales, il s'installe en 1698 dans l'île Chusan et établit une des premières collections européennes de la flore chinoise.
 Membre de la Royal Society (1699), il est l'auteur d'une relation de son voyage, Observations During a Residence in the Island of Chusan.
